--- a/Code/Results/Cases/Case_9_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004308052526974</v>
+        <v>1.00423028743202</v>
       </c>
       <c r="D2">
-        <v>1.023620113520129</v>
+        <v>1.023140600550616</v>
       </c>
       <c r="E2">
-        <v>1.010183200201347</v>
+        <v>1.010121641994542</v>
       </c>
       <c r="F2">
-        <v>1.018488529243236</v>
+        <v>1.018454841342848</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043553477236754</v>
+        <v>1.043389644862266</v>
       </c>
       <c r="J2">
-        <v>1.026360669583772</v>
+        <v>1.026285203348032</v>
       </c>
       <c r="K2">
-        <v>1.034759905287153</v>
+        <v>1.034286695394074</v>
       </c>
       <c r="L2">
-        <v>1.021502466677213</v>
+        <v>1.021441744517245</v>
       </c>
       <c r="M2">
-        <v>1.029696161110152</v>
+        <v>1.029662921402726</v>
       </c>
       <c r="N2">
-        <v>1.012683020278984</v>
+        <v>1.014164524589268</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03207486002293</v>
+        <v>1.032048552710384</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035648506063827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035322711346545</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021206120331128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007623516164613</v>
+        <v>1.007437049459719</v>
       </c>
       <c r="D3">
-        <v>1.025810128629655</v>
+        <v>1.025175891100559</v>
       </c>
       <c r="E3">
-        <v>1.012750638076133</v>
+        <v>1.01259402775292</v>
       </c>
       <c r="F3">
-        <v>1.021328275277244</v>
+        <v>1.021247607605009</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044244259951851</v>
+        <v>1.044005813194258</v>
       </c>
       <c r="J3">
-        <v>1.027908492082708</v>
+        <v>1.027727005956027</v>
       </c>
       <c r="K3">
-        <v>1.036123080632164</v>
+        <v>1.035496465110337</v>
       </c>
       <c r="L3">
-        <v>1.023222930727057</v>
+        <v>1.02306826228089</v>
       </c>
       <c r="M3">
-        <v>1.031695340411864</v>
+        <v>1.031615652112831</v>
       </c>
       <c r="N3">
-        <v>1.013208325787159</v>
+        <v>1.014553133678841</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.033657093393482</v>
+        <v>1.033594024838626</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036609720631176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036175178184147</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021431683798721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009732810868221</v>
+        <v>1.009477911608642</v>
       </c>
       <c r="D4">
-        <v>1.027207123593525</v>
+        <v>1.026474938785735</v>
       </c>
       <c r="E4">
-        <v>1.014389577590548</v>
+        <v>1.014173050015218</v>
       </c>
       <c r="F4">
-        <v>1.023140849630487</v>
+        <v>1.023030672736626</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044675926127237</v>
+        <v>1.044390219323749</v>
       </c>
       <c r="J4">
-        <v>1.028890785037051</v>
+        <v>1.028642239945373</v>
       </c>
       <c r="K4">
-        <v>1.036987907902581</v>
+        <v>1.036263999452001</v>
       </c>
       <c r="L4">
-        <v>1.024317380621447</v>
+        <v>1.024103376106843</v>
       </c>
       <c r="M4">
-        <v>1.032967782408747</v>
+        <v>1.032858862218278</v>
       </c>
       <c r="N4">
-        <v>1.013541665481358</v>
+        <v>1.014799831698151</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034664154879844</v>
+        <v>1.034577951141282</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037222130845721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036718875980752</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.0215724004155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010613844670523</v>
+        <v>1.010330505150635</v>
       </c>
       <c r="D5">
-        <v>1.027793770005985</v>
+        <v>1.027020809151766</v>
       </c>
       <c r="E5">
-        <v>1.015075783102183</v>
+        <v>1.014834335476936</v>
       </c>
       <c r="F5">
-        <v>1.023898202654223</v>
+        <v>1.02377577701678</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044855797115333</v>
+        <v>1.044550394794803</v>
       </c>
       <c r="J5">
-        <v>1.029301846666906</v>
+        <v>1.029025362086379</v>
       </c>
       <c r="K5">
-        <v>1.037351443526703</v>
+        <v>1.036586990651366</v>
       </c>
       <c r="L5">
-        <v>1.024775473572282</v>
+        <v>1.024536764541466</v>
       </c>
       <c r="M5">
-        <v>1.033498915488692</v>
+        <v>1.033377848972373</v>
       </c>
       <c r="N5">
-        <v>1.013681388462741</v>
+        <v>1.014903290958681</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.035084514415931</v>
+        <v>1.034988697651991</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037486377506252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036955165333656</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021631509368446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010764559901786</v>
+        <v>1.010476336989166</v>
       </c>
       <c r="D6">
-        <v>1.027896934515559</v>
+        <v>1.027117030322594</v>
       </c>
       <c r="E6">
-        <v>1.01519364633352</v>
+        <v>1.014947915603525</v>
       </c>
       <c r="F6">
-        <v>1.024026442605563</v>
+        <v>1.023901914469949</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044888245594354</v>
+        <v>1.044579470516825</v>
       </c>
       <c r="J6">
-        <v>1.02937379716489</v>
+        <v>1.029092511962875</v>
       </c>
       <c r="K6">
-        <v>1.037417130735779</v>
+        <v>1.036645772165072</v>
       </c>
       <c r="L6">
-        <v>1.024855049584708</v>
+        <v>1.02461209327975</v>
       </c>
       <c r="M6">
-        <v>1.03358920617949</v>
+        <v>1.033466054162564</v>
       </c>
       <c r="N6">
-        <v>1.013706135839245</v>
+        <v>1.014921652120877</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.0351559739825</v>
+        <v>1.035058506681765</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037541598070552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037006371864228</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021642810023089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009753413044827</v>
+        <v>1.009504290135274</v>
       </c>
       <c r="D7">
-        <v>1.027228216779763</v>
+        <v>1.026499997030501</v>
       </c>
       <c r="E7">
-        <v>1.014406699899523</v>
+        <v>1.014195339571219</v>
       </c>
       <c r="F7">
-        <v>1.023154794456092</v>
+        <v>1.023047114840559</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044684943517577</v>
+        <v>1.044401917076488</v>
       </c>
       <c r="J7">
-        <v>1.028904873176459</v>
+        <v>1.028661957784059</v>
       </c>
       <c r="K7">
-        <v>1.037005867878762</v>
+        <v>1.036285876464331</v>
       </c>
       <c r="L7">
-        <v>1.024331359319999</v>
+        <v>1.02412246089872</v>
       </c>
       <c r="M7">
-        <v>1.03297865777081</v>
+        <v>1.032872205918854</v>
       </c>
       <c r="N7">
-        <v>1.013547247874694</v>
+        <v>1.014831577180177</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034672762070128</v>
+        <v>1.034588511873251</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037255010247816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036756524023877</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021578529022416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005447107692593</v>
+        <v>1.005351801087321</v>
       </c>
       <c r="D8">
-        <v>1.024380821754033</v>
+        <v>1.023863090985585</v>
       </c>
       <c r="E8">
-        <v>1.011065503005088</v>
+        <v>1.010989022414797</v>
       </c>
       <c r="F8">
-        <v>1.019458245623843</v>
+        <v>1.019416977834069</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043798324271391</v>
+        <v>1.043618529519752</v>
       </c>
       <c r="J8">
-        <v>1.026898472298762</v>
+        <v>1.026805889848208</v>
       </c>
       <c r="K8">
-        <v>1.035240364014305</v>
+        <v>1.034729239409228</v>
       </c>
       <c r="L8">
-        <v>1.022097642511568</v>
+        <v>1.022022169750662</v>
       </c>
       <c r="M8">
-        <v>1.030380938656353</v>
+        <v>1.030340203507783</v>
       </c>
       <c r="N8">
-        <v>1.012866588775573</v>
+        <v>1.014384103815219</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.032616821761096</v>
+        <v>1.032584582263751</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036011224486885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035660887573181</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021292753919598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9975582722623816</v>
+        <v>0.9977292194462468</v>
       </c>
       <c r="D9">
-        <v>1.019183693472134</v>
+        <v>1.019039289438461</v>
       </c>
       <c r="E9">
-        <v>1.004987935550192</v>
+        <v>1.005143801391889</v>
       </c>
       <c r="F9">
-        <v>1.01274022836221</v>
+        <v>1.012814487775954</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042106019571778</v>
+        <v>1.042106525536226</v>
       </c>
       <c r="J9">
-        <v>1.023197549853125</v>
+        <v>1.023362420446996</v>
       </c>
       <c r="K9">
-        <v>1.031973011411448</v>
+        <v>1.031830839342947</v>
       </c>
       <c r="L9">
-        <v>1.018000602044351</v>
+        <v>1.018153971655261</v>
       </c>
       <c r="M9">
-        <v>1.025629931504087</v>
+        <v>1.025703024694228</v>
       </c>
       <c r="N9">
-        <v>1.011609522014466</v>
+        <v>1.013464873493459</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.028856666282293</v>
+        <v>1.028914515593773</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033697787383544</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033608046574458</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020737509606916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9921731252025882</v>
+        <v>0.9925571275012675</v>
       </c>
       <c r="D10">
-        <v>1.015670141027158</v>
+        <v>1.015802494815559</v>
       </c>
       <c r="E10">
-        <v>1.000880838378823</v>
+        <v>1.001222488664836</v>
       </c>
       <c r="F10">
-        <v>1.008431372886038</v>
+        <v>1.008598385809653</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040934390283759</v>
+        <v>1.041071740864943</v>
       </c>
       <c r="J10">
-        <v>1.020700757098828</v>
+        <v>1.021069189274495</v>
       </c>
       <c r="K10">
-        <v>1.029762115113495</v>
+        <v>1.029892174071122</v>
       </c>
       <c r="L10">
-        <v>1.015234207208251</v>
+        <v>1.015569705725969</v>
       </c>
       <c r="M10">
-        <v>1.022650046873029</v>
+        <v>1.022814109996929</v>
       </c>
       <c r="N10">
-        <v>1.010765364271296</v>
+        <v>1.01296622097633</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.026550438248415</v>
+        <v>1.026680277444016</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032151418165394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03225584110063</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020361982407012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,105 +997,123 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.990429900014938</v>
+        <v>0.9909107178535869</v>
       </c>
       <c r="D11">
-        <v>1.014620803730108</v>
+        <v>1.014855151422285</v>
       </c>
       <c r="E11">
-        <v>0.9996360172391066</v>
+        <v>1.000061648113053</v>
       </c>
       <c r="F11">
-        <v>1.008977991357614</v>
+        <v>1.0091855636424</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040717338225104</v>
+        <v>1.040908374542869</v>
       </c>
       <c r="J11">
-        <v>1.020206297927454</v>
+        <v>1.020666571923506</v>
       </c>
       <c r="K11">
-        <v>1.029272161787262</v>
+        <v>1.029502255443419</v>
       </c>
       <c r="L11">
-        <v>1.014564801007707</v>
+        <v>1.014982401934572</v>
       </c>
       <c r="M11">
-        <v>1.023732559021765</v>
+        <v>1.023936308071426</v>
       </c>
       <c r="N11">
-        <v>1.010630948442697</v>
+        <v>1.013109837246396</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.027848762532066</v>
+        <v>1.028009925718274</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031837983887919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032016347110645</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020329355154029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9899887921268139</v>
+        <v>0.9904936720659517</v>
       </c>
       <c r="D12">
-        <v>1.014389038695879</v>
+        <v>1.014644714925967</v>
       </c>
       <c r="E12">
-        <v>0.9993586998033358</v>
+        <v>0.9998044273158073</v>
       </c>
       <c r="F12">
-        <v>1.009994324120053</v>
+        <v>1.010211089464385</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040736664173634</v>
+        <v>1.040938840671526</v>
       </c>
       <c r="J12">
-        <v>1.020222971720633</v>
+        <v>1.020705877905256</v>
       </c>
       <c r="K12">
-        <v>1.02924566373165</v>
+        <v>1.02949662259765</v>
       </c>
       <c r="L12">
-        <v>1.014498196434627</v>
+        <v>1.014935375148957</v>
       </c>
       <c r="M12">
-        <v>1.024932521246402</v>
+        <v>1.02514524140605</v>
       </c>
       <c r="N12">
-        <v>1.010662814931688</v>
+        <v>1.013240507662047</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.029127609766123</v>
+        <v>1.029295810867473</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031819248759055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032012364561136</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020357942452814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9905270399686712</v>
+        <v>0.9909923518564442</v>
       </c>
       <c r="D13">
-        <v>1.014782701353356</v>
+        <v>1.014992054430427</v>
       </c>
       <c r="E13">
-        <v>0.9998117214669159</v>
+        <v>1.000221666861483</v>
       </c>
       <c r="F13">
-        <v>1.011465436150304</v>
+        <v>1.011664329494061</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040949111168872</v>
+        <v>1.041126064445742</v>
       </c>
       <c r="J13">
-        <v>1.020643685080495</v>
+        <v>1.021088849742664</v>
       </c>
       <c r="K13">
-        <v>1.029588962311431</v>
+        <v>1.029794469299807</v>
       </c>
       <c r="L13">
-        <v>1.014898483446047</v>
+        <v>1.015300601673999</v>
       </c>
       <c r="M13">
-        <v>1.026332916669025</v>
+        <v>1.02652812471762</v>
       </c>
       <c r="N13">
-        <v>1.010829115367845</v>
+        <v>1.013337667125881</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.030513818345917</v>
+        <v>1.030668133005205</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032059471181143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032220204001866</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02043921158008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9913410813861951</v>
+        <v>0.991750934279614</v>
       </c>
       <c r="D14">
-        <v>1.015338305706499</v>
+        <v>1.015485687117836</v>
       </c>
       <c r="E14">
-        <v>1.000454246883656</v>
+        <v>1.000814882112682</v>
       </c>
       <c r="F14">
-        <v>1.012676244573162</v>
+        <v>1.012850988394483</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041182619804135</v>
+        <v>1.04132614169555</v>
       </c>
       <c r="J14">
-        <v>1.021114747405739</v>
+        <v>1.021507107611618</v>
       </c>
       <c r="K14">
-        <v>1.029993244673744</v>
+        <v>1.03013795184648</v>
       </c>
       <c r="L14">
-        <v>1.015384559477429</v>
+        <v>1.015738396005572</v>
       </c>
       <c r="M14">
-        <v>1.027379661150473</v>
+        <v>1.027551212616744</v>
       </c>
       <c r="N14">
-        <v>1.011004372737984</v>
+        <v>1.013390233087731</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.031515716037616</v>
+        <v>1.03165131137586</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032346744480484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032464622810789</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020519435255678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9917621933055673</v>
+        <v>0.9921449537054987</v>
       </c>
       <c r="D15">
-        <v>1.01561951902825</v>
+        <v>1.015736984923556</v>
       </c>
       <c r="E15">
-        <v>1.00077877653948</v>
+        <v>1.001115538401983</v>
       </c>
       <c r="F15">
-        <v>1.013117892406968</v>
+        <v>1.013280998015399</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041287371461716</v>
+        <v>1.041414916170661</v>
       </c>
       <c r="J15">
-        <v>1.021328545919471</v>
+        <v>1.02169511126778</v>
       </c>
       <c r="K15">
-        <v>1.030182439601344</v>
+        <v>1.03029779008407</v>
       </c>
       <c r="L15">
-        <v>1.015614175184878</v>
+        <v>1.01594463712367</v>
       </c>
       <c r="M15">
-        <v>1.027726015602827</v>
+        <v>1.027886165161907</v>
       </c>
       <c r="N15">
-        <v>1.011080348937959</v>
+        <v>1.013401721084372</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.031827226436334</v>
+        <v>1.031953806287703</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032486406323035</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032584096683321</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020553401890333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9939217129373922</v>
+        <v>0.9941799482325944</v>
       </c>
       <c r="D16">
-        <v>1.017019698133603</v>
+        <v>1.016998003425504</v>
       </c>
       <c r="E16">
-        <v>1.002411047822579</v>
+        <v>1.002639104796355</v>
       </c>
       <c r="F16">
-        <v>1.014700598271054</v>
+        <v>1.014810667228562</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041748954479604</v>
+        <v>1.041803730183713</v>
       </c>
       <c r="J16">
-        <v>1.022301018140218</v>
+        <v>1.022548866499456</v>
       </c>
       <c r="K16">
-        <v>1.031052513084495</v>
+        <v>1.031031192218811</v>
       </c>
       <c r="L16">
-        <v>1.016700355898255</v>
+        <v>1.016924334154702</v>
       </c>
       <c r="M16">
-        <v>1.028773492946869</v>
+        <v>1.028881654285186</v>
       </c>
       <c r="N16">
-        <v>1.011404839070807</v>
+        <v>1.013421771812345</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.032616200673888</v>
+        <v>1.032701692257574</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033104764295741</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033106121319135</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020691067159431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9951601683664176</v>
+        <v>0.995358638780394</v>
       </c>
       <c r="D17">
-        <v>1.01780973359674</v>
+        <v>1.017718500657845</v>
       </c>
       <c r="E17">
-        <v>1.003334922104989</v>
+        <v>1.003511213581965</v>
       </c>
       <c r="F17">
-        <v>1.015285440294198</v>
+        <v>1.015370162833266</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041981747628868</v>
+        <v>1.042001196287365</v>
       </c>
       <c r="J17">
-        <v>1.022805613123364</v>
+        <v>1.022996353547449</v>
       </c>
       <c r="K17">
-        <v>1.031512537005142</v>
+        <v>1.031422832540496</v>
       </c>
       <c r="L17">
-        <v>1.017284729637882</v>
+        <v>1.017457957324513</v>
       </c>
       <c r="M17">
-        <v>1.029030665263732</v>
+        <v>1.029113959600893</v>
       </c>
       <c r="N17">
-        <v>1.011563635117066</v>
+        <v>1.013439530457712</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.032689613593876</v>
+        <v>1.032755456715225</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033432620187202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033385874543998</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02075642191866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9956906325383007</v>
+        <v>0.9958719937431337</v>
       </c>
       <c r="D18">
-        <v>1.018117550473484</v>
+        <v>1.01800574407845</v>
       </c>
       <c r="E18">
-        <v>1.003704322737597</v>
+        <v>1.003866375837001</v>
       </c>
       <c r="F18">
-        <v>1.014901617323572</v>
+        <v>1.014979288143485</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042021894448289</v>
+        <v>1.042031752806786</v>
       </c>
       <c r="J18">
-        <v>1.022917436988966</v>
+        <v>1.023091864420295</v>
       </c>
       <c r="K18">
-        <v>1.031630711633138</v>
+        <v>1.031520748061842</v>
       </c>
       <c r="L18">
-        <v>1.017459419634572</v>
+        <v>1.017618702676454</v>
       </c>
       <c r="M18">
-        <v>1.028467993140632</v>
+        <v>1.028544373609632</v>
       </c>
       <c r="N18">
-        <v>1.011581048090996</v>
+        <v>1.013409525130451</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032005297309719</v>
+        <v>1.032065687849477</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033504494074899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03344229030748</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020755554573858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.995566043156213</v>
+        <v>0.9957643016054892</v>
       </c>
       <c r="D19">
-        <v>1.017989275050317</v>
+        <v>1.017898526471935</v>
       </c>
       <c r="E19">
-        <v>1.003559831475874</v>
+        <v>1.003737484930503</v>
       </c>
       <c r="F19">
-        <v>1.013540694111368</v>
+        <v>1.013626036544993</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041888065696453</v>
+        <v>1.041909573012931</v>
       </c>
       <c r="J19">
-        <v>1.022661999311006</v>
+        <v>1.022852719875926</v>
       </c>
       <c r="K19">
-        <v>1.03144163221307</v>
+        <v>1.031352371831415</v>
       </c>
       <c r="L19">
-        <v>1.017253184032546</v>
+        <v>1.017427815989444</v>
       </c>
       <c r="M19">
-        <v>1.027066407901039</v>
+        <v>1.027150335248257</v>
       </c>
       <c r="N19">
-        <v>1.011469740392487</v>
+        <v>1.013315703544257</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.030568431020924</v>
+        <v>1.030634810607804</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03337722789524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033330287481997</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020696155878545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9935919901348181</v>
+        <v>0.9939008708028927</v>
       </c>
       <c r="D20">
-        <v>1.016612642369256</v>
+        <v>1.016658083508656</v>
       </c>
       <c r="E20">
-        <v>1.001964126636399</v>
+        <v>1.002239816997279</v>
       </c>
       <c r="F20">
-        <v>1.009566992761042</v>
+        <v>1.009701285638271</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041258417681833</v>
+        <v>1.041350468109541</v>
       </c>
       <c r="J20">
-        <v>1.021372184395886</v>
+        <v>1.021668945249281</v>
       </c>
       <c r="K20">
-        <v>1.030369535666327</v>
+        <v>1.030414211150738</v>
       </c>
       <c r="L20">
-        <v>1.015972526944904</v>
+        <v>1.016243395929846</v>
       </c>
       <c r="M20">
-        <v>1.02344367856801</v>
+        <v>1.023575667953423</v>
       </c>
       <c r="N20">
-        <v>1.010994910825805</v>
+        <v>1.013030961693109</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.027167820451861</v>
+        <v>1.027272277846941</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032623146054796</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032671296526385</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020466330160462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9894295734853646</v>
+        <v>0.9899972649678483</v>
       </c>
       <c r="D21">
-        <v>1.013886488870996</v>
+        <v>1.014218059716803</v>
       </c>
       <c r="E21">
-        <v>0.9987861472376409</v>
+        <v>0.9992898450675046</v>
       </c>
       <c r="F21">
-        <v>1.005868553151634</v>
+        <v>1.00611597647619</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04030511299361</v>
+        <v>1.040549456278836</v>
       </c>
       <c r="J21">
-        <v>1.019375985694127</v>
+        <v>1.019919232342207</v>
       </c>
       <c r="K21">
-        <v>1.028609468291855</v>
+        <v>1.02893498201889</v>
       </c>
       <c r="L21">
-        <v>1.013790552981338</v>
+        <v>1.014284684053615</v>
       </c>
       <c r="M21">
-        <v>1.020739590469427</v>
+        <v>1.020982398869574</v>
       </c>
       <c r="N21">
-        <v>1.010313866335581</v>
+        <v>1.012973514040958</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.024986214471775</v>
+        <v>1.025178385269544</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031381941021032</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031628985637736</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020174803314476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9867940957743099</v>
+        <v>0.9875251505158165</v>
       </c>
       <c r="D22">
-        <v>1.012163430661897</v>
+        <v>1.012675389768957</v>
       </c>
       <c r="E22">
-        <v>0.9967847317815617</v>
+        <v>0.9974323517638504</v>
       </c>
       <c r="F22">
-        <v>1.003660143597476</v>
+        <v>1.003979105349324</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039699429393066</v>
+        <v>1.040039844534987</v>
       </c>
       <c r="J22">
-        <v>1.018125054722786</v>
+        <v>1.018822812734626</v>
       </c>
       <c r="K22">
-        <v>1.027497718271215</v>
+        <v>1.027999858465638</v>
       </c>
       <c r="L22">
-        <v>1.012420153991665</v>
+        <v>1.013054846453256</v>
       </c>
       <c r="M22">
-        <v>1.019159439373538</v>
+        <v>1.019472145382065</v>
       </c>
       <c r="N22">
-        <v>1.009887883408419</v>
+        <v>1.01293442656106</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.023735601977758</v>
+        <v>1.023983093708867</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030582308612957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030952938834769</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019989283500998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9881877010656911</v>
+        <v>0.9888216913672027</v>
       </c>
       <c r="D23">
-        <v>1.01306760134219</v>
+        <v>1.013475980415654</v>
       </c>
       <c r="E23">
-        <v>0.9978411402059932</v>
+        <v>0.9984030434969285</v>
       </c>
       <c r="F23">
-        <v>1.004830509829507</v>
+        <v>1.005106966165041</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040016294381279</v>
+        <v>1.040300632570516</v>
       </c>
       <c r="J23">
-        <v>1.018782731639314</v>
+        <v>1.019388685912006</v>
       </c>
       <c r="K23">
-        <v>1.028077634719683</v>
+        <v>1.028478379186133</v>
       </c>
       <c r="L23">
-        <v>1.01314167993886</v>
+        <v>1.013692656196741</v>
       </c>
       <c r="M23">
-        <v>1.019996268635563</v>
+        <v>1.020267444292487</v>
       </c>
       <c r="N23">
-        <v>1.010110961269366</v>
+        <v>1.012910883881931</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.024397911795078</v>
+        <v>1.024612534050728</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03098265778073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031280654124296</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020082228956035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9935851182562453</v>
+        <v>0.9938956674068763</v>
       </c>
       <c r="D24">
-        <v>1.016590629044819</v>
+        <v>1.0166381565081</v>
       </c>
       <c r="E24">
-        <v>1.001949716959461</v>
+        <v>1.002226984875582</v>
       </c>
       <c r="F24">
-        <v>1.009373652057072</v>
+        <v>1.009508773652191</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041234329985212</v>
+        <v>1.04132761683054</v>
       </c>
       <c r="J24">
-        <v>1.021332359747511</v>
+        <v>1.021630740551199</v>
       </c>
       <c r="K24">
-        <v>1.030332526874024</v>
+        <v>1.030379254514078</v>
       </c>
       <c r="L24">
-        <v>1.015942679678044</v>
+        <v>1.016215104707537</v>
       </c>
       <c r="M24">
-        <v>1.023238131504943</v>
+        <v>1.023370937229992</v>
       </c>
       <c r="N24">
-        <v>1.010977236663851</v>
+        <v>1.013013630847768</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02696368310917</v>
+        <v>1.027068791951792</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032569453789382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032616384601299</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020453582176773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9996472532409163</v>
+        <v>0.9997387330010816</v>
       </c>
       <c r="D25">
-        <v>1.020567426622346</v>
+        <v>1.020317713705199</v>
       </c>
       <c r="E25">
-        <v>1.006593701952502</v>
+        <v>1.006680113804453</v>
       </c>
       <c r="F25">
-        <v>1.014507615479173</v>
+        <v>1.014547320612938</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042568393656514</v>
+        <v>1.042516954176798</v>
       </c>
       <c r="J25">
-        <v>1.024186494555847</v>
+        <v>1.024274893023057</v>
       </c>
       <c r="K25">
-        <v>1.032854634494177</v>
+        <v>1.032608603244512</v>
       </c>
       <c r="L25">
-        <v>1.01909051431137</v>
+        <v>1.019175607194051</v>
       </c>
       <c r="M25">
-        <v>1.026884817748343</v>
+        <v>1.02692392876867</v>
       </c>
       <c r="N25">
-        <v>1.011946837378564</v>
+        <v>1.013679177755691</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.029849840283622</v>
+        <v>1.029880794499595</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034349854479624</v>
+        <v>1.034189480796766</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020890301157757</v>
       </c>
     </row>
   </sheetData>
